--- a/biology/Botanique/Glaucocystophycées/Glaucocystophycées.xlsx
+++ b/biology/Botanique/Glaucocystophycées/Glaucocystophycées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glaucocystophyc%C3%A9es</t>
+          <t>Glaucocystophycées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glaucophyceae sont une classe d'algues de l'embranchement des Glaucophyta. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glaucocystophyc%C3%A9es</t>
+          <t>Glaucocystophycées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glaucocystophyceae J.H.Schaffn., 1922[4] (publié originellement sous le nom de « classe des Glaucocysteae », automatiquement corrigé avec le suffixe des classes botaniques selon les critères du Code international de nomenclature pour les algues, les champignons et les plantes). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glaucocystophyceae J.H.Schaffn., 1922 (publié originellement sous le nom de « classe des Glaucocysteae », automatiquement corrigé avec le suffixe des classes botaniques selon les critères du Code international de nomenclature pour les algues, les champignons et les plantes). 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glaucocystophyc%C3%A9es</t>
+          <t>Glaucocystophycées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 août 2017)[1] et BioLib                    (5 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 août 2017) et BioLib                    (5 août 2017) :
 ordre des Cyanophorales Kies &amp; Kramer, 1986
 ordre des Glaucocystales Bessey, 1907
 ordre des Gloeochaetales Kies &amp; Kremer, 1986
-Selon ITIS      (5 août 2017)[5] et World Register of Marine Species                               (5 août 2017)[6] :
+Selon ITIS      (5 août 2017) et World Register of Marine Species                               (5 août 2017) :
 ordre des Glaucocystales</t>
         </is>
       </c>
